--- a/illumina_probe_overlap_summary.xlsx
+++ b/illumina_probe_overlap_summary.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcmedu-my.sharepoint.com/personal/u239646_bcm_edu/Documents/text-mining/humanData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antata/Desktop/probe_overlap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{4BFFA6DC-8494-4849-BFDB-17A51386F067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AF71AF0-3B60-B24C-853C-E0792A1CF97C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F64999-C117-4440-B808-AD2415849CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{574D6E57-1960-DB49-98FF-E546C6439812}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17120" xr2:uid="{574D6E57-1960-DB49-98FF-E546C6439812}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="35">
   <si>
     <t>CoRSIV</t>
   </si>
@@ -74,40 +74,73 @@
     <t>Source</t>
   </si>
   <si>
-    <t>Number of Probes on chr1-22</t>
-  </si>
-  <si>
     <t>Number of Regions</t>
   </si>
   <si>
-    <t>* Union of EPIC and HM450 by region</t>
-  </si>
-  <si>
-    <t>*Union of EPIC, HM450, MSA by region</t>
-  </si>
-  <si>
-    <t>Number of region covered by at least 1 probe</t>
-  </si>
-  <si>
-    <t>Number of Probes overlapping with respective SIV regions</t>
-  </si>
-  <si>
-    <t>% Probes overlapping with SIV regions</t>
-  </si>
-  <si>
-    <t>% of region covered by at least 1 probe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*Reported in 2023, S18 </t>
-  </si>
-  <si>
-    <t>S3, CoRSIV-2019</t>
-  </si>
-  <si>
-    <t>S7, ESS-2017</t>
-  </si>
-  <si>
-    <t>SIV: S9, ESS-2017; ME: S3, SIV-2015</t>
+    <t>References</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>Silver MJ, Kessler NJ, Hennig BJ, Dominguez-Salas P, Laritsky E, Baker MS, Coarfa C, Hernandez-Vargas H, Castelino JM, Routledge MN, Gong YY, Herceg Z, Lee YS, Lee K, Moore SE, Fulford AJ, Prentice AM, Waterland RA. Independent genomewide screens identify the tumor suppressor VTRNA2-1 as a human epiallele responsive to periconceptional environment. Genome Biol. 2015 Jun 11;16(1):118. doi: 10.1186/s13059-015-0660-y. PMID: 26062908; PMCID: PMC4464629.</t>
+  </si>
+  <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>Van Baak TE, Coarfa C, Dugué PA, Fiorito G, Laritsky E, Baker MS, Kessler NJ, Dong J, Duryea JD, Silver MJ, Saffari A, Prentice AM, Moore SE, Ghantous A, Routledge MN, Gong YY, Herceg Z, Vineis P, Severi G, Hopper JL, Southey MC, Giles GG, Milne RL, Waterland RA. Epigenetic supersimilarity of monozygotic twin pairs. Genome Biol. 2018 Jan 9;19(1):2. doi: 10.1186/s13059-017-1374-0. PMID: 29310692; PMCID: PMC5759268.</t>
+  </si>
+  <si>
+    <t>Gunasekara CJ, MacKay H, Scott CA, Li S, Laritsky E, Baker MS, Grimm SL, Jun G, Li Y, Chen R, Wiemels JL, Coarfa C, Waterland RA. Systemic interindividual epigenetic variation in humans is associated with transposable elements and under strong genetic control. Genome Biol. 2023 Jan 12;24(1):2. doi: 10.1186/s13059-022-02827-3. PMID: 36631879; PMCID: PMC9835319.</t>
+  </si>
+  <si>
+    <t>Gunasekara CJ, Scott CA, Laritsky E, Baker MS, MacKay H, Duryea JD, Kessler NJ, Hellenthal G, Wood AC, Hodges KR, Gandhi M, Hair AB, Silver MJ, Moore SE, Prentice AM, Li Y, Chen R, Coarfa C, Waterland RA. A genomic atlas of systemic interindividual epigenetic variation in humans. Genome Biol. 2019 Jun 3;20(1):105. doi: 10.1186/s13059-019-1708-1. PMID: 31155008; PMCID: PMC6545702.</t>
+  </si>
+  <si>
+    <t>Table 1: Number of Probes on chr1-22 on Each Platform</t>
+  </si>
+  <si>
+    <t>Table S3 of Gunasekara, 2019  [3]</t>
+  </si>
+  <si>
+    <t>SIV: Table S9 of Van Baak, 2018 [2]; ME: Table S3 of Silver &amp; Kessler, 2015 [1]</t>
+  </si>
+  <si>
+    <t>Table S7 of Van Baak, 2018 [2]</t>
+  </si>
+  <si>
+    <t>Table 2: Number of CoRSIV-like Regions</t>
+  </si>
+  <si>
+    <t>Table 3: Number of Probes overlapping with CoRSIV-like regions</t>
+  </si>
+  <si>
+    <t>Table 4: % Probes overlapping with CoRSIV-like regions</t>
+  </si>
+  <si>
+    <t>Table 5: Number of CoRSIV-like region covered by at least 1 probe</t>
+  </si>
+  <si>
+    <t>Table 6: % of CoRSIV-like region covered by at least 1 probe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Reported in Gunasekara, 2023 [4] </t>
+  </si>
+  <si>
+    <t>*Union of EPIC and HM450 by region coordinates, overlapping probes across versions are merged into one probe</t>
+  </si>
+  <si>
+    <t>*Union of EPIC, HM450, MSA by region coordinates, overlapping probes across versions are merged into one probe</t>
+  </si>
+  <si>
+    <t>Union of three set above by region coordinates, overlapping regions are merged into one single region</t>
   </si>
 </sst>
 </file>
@@ -137,7 +170,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -160,11 +193,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -172,31 +242,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -533,602 +619,650 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521A67C6-476D-5940-B82D-BF1D47C03111}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.6640625" style="1" customWidth="1"/>
     <col min="2" max="5" width="10.83203125" style="1"/>
-    <col min="6" max="6" width="22.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="31" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="88" style="1" customWidth="1"/>
     <col min="10" max="10" width="22.33203125" style="1" customWidth="1"/>
     <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="A1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1701</v>
+      </c>
+      <c r="C3" s="3">
+        <v>660</v>
+      </c>
+      <c r="D3" s="3">
+        <v>698</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2546</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>473845</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2397</v>
+      </c>
+      <c r="C4" s="7">
+        <v>645</v>
+      </c>
+      <c r="D4" s="7">
+        <v>699</v>
+      </c>
+      <c r="E4" s="7">
+        <v>3221</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="3">
+        <v>846195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3291</v>
+      </c>
+      <c r="C5" s="3">
+        <v>551</v>
+      </c>
+      <c r="D5" s="3">
+        <v>503</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3774</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="3">
+        <v>259819</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2512</v>
+      </c>
+      <c r="C6" s="3">
+        <v>696</v>
+      </c>
+      <c r="D6" s="3">
+        <v>760</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3412</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="3">
+        <v>878958</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4162</v>
+      </c>
+      <c r="C7" s="3">
+        <v>794</v>
+      </c>
+      <c r="D7" s="3">
+        <v>844</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5121</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="3">
+        <v>983849</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="14"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="I10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>9926</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
-        <v>1701</v>
-      </c>
-      <c r="C3" s="4">
-        <v>660</v>
-      </c>
-      <c r="D3" s="4">
-        <v>698</v>
-      </c>
-      <c r="E3" s="4">
-        <v>2546</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="4">
-        <v>473845</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="10">
-        <v>2393</v>
-      </c>
-      <c r="C4" s="10">
-        <v>645</v>
-      </c>
-      <c r="D4" s="10">
-        <v>699</v>
-      </c>
-      <c r="E4" s="10">
-        <v>3217</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="4">
-        <v>846195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4">
-        <v>3291</v>
-      </c>
-      <c r="C5" s="4">
-        <v>551</v>
-      </c>
-      <c r="D5" s="4">
-        <v>503</v>
-      </c>
-      <c r="E5" s="4">
-        <v>3774</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="4">
-        <v>259819</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4">
-        <v>2512</v>
-      </c>
-      <c r="C6" s="4">
-        <v>696</v>
-      </c>
-      <c r="D6" s="4">
-        <v>760</v>
-      </c>
-      <c r="E6" s="4">
-        <v>3412</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="4">
-        <v>878958</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4">
-        <v>4162</v>
-      </c>
-      <c r="C7" s="4">
-        <v>794</v>
-      </c>
-      <c r="D7" s="4">
-        <v>844</v>
-      </c>
-      <c r="E7" s="4">
-        <v>5121</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="4">
-        <v>983849</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <v>9926</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="6">
+      <c r="B12" s="5">
         <f>B3/H3</f>
         <v>3.589781468623706E-3</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C12" s="5">
         <f>C3/H3</f>
         <v>1.3928605345629901E-3</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D12" s="5">
         <f>D3/H3</f>
         <v>1.4730555350378287E-3</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E12" s="5">
         <f>E3/H3</f>
         <v>5.3730650318142012E-3</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H12" s="3">
         <v>198</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="I12" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B13" s="5">
         <f>B4/H4</f>
-        <v>2.8279533677225696E-3</v>
-      </c>
-      <c r="C12" s="6">
-        <f t="shared" ref="C12:D15" si="0">C4/H4</f>
+        <v>2.8326804105436691E-3</v>
+      </c>
+      <c r="C13" s="5">
+        <f t="shared" ref="C13:C16" si="0">C4/H4</f>
         <v>7.6223565490223888E-4</v>
       </c>
-      <c r="D12" s="6">
-        <f t="shared" ref="D12:D15" si="1">D4/H4</f>
+      <c r="D13" s="5">
+        <f t="shared" ref="D13:D16" si="1">D4/H4</f>
         <v>8.2605073298707744E-4</v>
       </c>
-      <c r="E12" s="6">
-        <f t="shared" ref="E12:E15" si="2">E4/H4</f>
-        <v>3.8017241888689958E-3</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="E13" s="5">
+        <f t="shared" ref="E13:E16" si="2">E4/H4</f>
+        <v>3.8064512316900953E-3</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="1" t="s">
+      <c r="I13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B14" s="5">
         <f>B5/H5</f>
         <v>1.26665101474488E-2</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C14" s="5">
         <f t="shared" si="0"/>
         <v>2.1207071076403189E-3</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D14" s="5">
         <f t="shared" si="1"/>
         <v>1.93596311278236E-3</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E14" s="5">
         <f t="shared" si="2"/>
         <v>1.4525496595707012E-2</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H14" s="3">
         <v>10405</v>
       </c>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="I14" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B15" s="5">
         <f>B6/H6</f>
         <v>2.8579295028886478E-3</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C15" s="5">
         <f t="shared" si="0"/>
         <v>7.9184670939908388E-4</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D15" s="5">
         <f t="shared" si="1"/>
         <v>8.646601999185399E-4</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E15" s="5">
         <f t="shared" si="2"/>
         <v>3.8818692133184974E-3</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B16" s="5">
         <f>B7/H7</f>
         <v>4.2303239623153552E-3</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C16" s="5">
         <f t="shared" si="0"/>
         <v>8.0703441280115143E-4</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D16" s="5">
         <f t="shared" si="1"/>
         <v>8.5785521965260928E-4</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E16" s="5">
         <f t="shared" si="2"/>
         <v>5.2050670377263176E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H17" s="4"/>
+      <c r="I17" s="14"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="G18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="3">
+        <v>837</v>
+      </c>
+      <c r="C20" s="3">
+        <v>198</v>
+      </c>
+      <c r="D20" s="3">
+        <v>224</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1102</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1306</v>
+      </c>
+      <c r="C21" s="3">
+        <v>198</v>
+      </c>
+      <c r="D21" s="3">
+        <v>230</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1574</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
+      <c r="H21" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1428</v>
+      </c>
+      <c r="C22" s="3">
+        <v>167</v>
+      </c>
+      <c r="D22" s="3">
+        <v>178</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1615</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1335</v>
+      </c>
+      <c r="C23" s="3">
+        <v>198</v>
+      </c>
+      <c r="D23" s="3">
+        <v>234</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1861</v>
+      </c>
+      <c r="C24" s="3">
+        <v>198</v>
+      </c>
+      <c r="D24" s="3">
+        <v>244</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E27" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="4">
-        <v>837</v>
-      </c>
-      <c r="C19" s="4">
-        <v>198</v>
-      </c>
-      <c r="D19" s="4">
-        <v>224</v>
-      </c>
-      <c r="E19" s="4">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="B28" s="5">
+        <f>B20/H11</f>
+        <v>8.4323997582107596E-2</v>
+      </c>
+      <c r="C28" s="5">
+        <f>C20/H12</f>
+        <v>1</v>
+      </c>
+      <c r="D28" s="5">
+        <f>D20/524</f>
+        <v>0.42748091603053434</v>
+      </c>
+      <c r="E28" s="5">
+        <f>E20/H14</f>
+        <v>0.10591061989428159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="4">
-        <v>1306</v>
-      </c>
-      <c r="C20" s="4">
-        <v>198</v>
-      </c>
-      <c r="D20" s="4">
-        <v>230</v>
-      </c>
-      <c r="E20" s="4">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="B29" s="5">
+        <f>B21/H11</f>
+        <v>0.13157364497279872</v>
+      </c>
+      <c r="C29" s="5">
+        <f>C21/H12</f>
+        <v>1</v>
+      </c>
+      <c r="D29" s="5">
+        <f>D21/524</f>
+        <v>0.43893129770992367</v>
+      </c>
+      <c r="E29" s="5">
+        <f>E21/H14</f>
+        <v>0.15127342623738588</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="4">
-        <v>1428</v>
-      </c>
-      <c r="C21" s="4">
-        <v>167</v>
-      </c>
-      <c r="D21" s="4">
-        <v>178</v>
-      </c>
-      <c r="E21" s="4">
-        <v>1615</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="B30" s="5">
+        <f>B22/H11</f>
+        <v>0.14386459802538787</v>
+      </c>
+      <c r="C30" s="5">
+        <f>C22/H12</f>
+        <v>0.84343434343434343</v>
+      </c>
+      <c r="D30" s="5">
+        <f>D22/524</f>
+        <v>0.33969465648854963</v>
+      </c>
+      <c r="E30" s="5">
+        <f>E22/H14</f>
+        <v>0.15521383950024026</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="4">
-        <v>1335</v>
-      </c>
-      <c r="C22" s="4">
-        <v>198</v>
-      </c>
-      <c r="D22" s="4">
-        <v>234</v>
-      </c>
-      <c r="E22" s="4">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="B31" s="5">
+        <f>B23/H11</f>
+        <v>0.13449526496070924</v>
+      </c>
+      <c r="C31" s="5">
+        <f>C23/H12</f>
+        <v>1</v>
+      </c>
+      <c r="D31" s="5">
+        <f>D23/524</f>
+        <v>0.44656488549618323</v>
+      </c>
+      <c r="E31" s="5">
+        <f>E23/H14</f>
+        <v>0.15444497837578086</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="4">
-        <v>1861</v>
-      </c>
-      <c r="C23" s="4">
-        <v>198</v>
-      </c>
-      <c r="D23" s="4">
-        <v>244</v>
-      </c>
-      <c r="E23" s="4">
-        <v>2133</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="B32" s="5">
+        <f>B24/H11</f>
+        <v>0.18748740681039694</v>
+      </c>
+      <c r="C32" s="5">
+        <f>C24/H12</f>
         <v>1</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="6">
-        <f>B19/H10</f>
-        <v>8.4323997582107596E-2</v>
-      </c>
-      <c r="C27" s="6">
-        <f>C19/H11</f>
-        <v>1</v>
-      </c>
-      <c r="D27" s="6">
-        <f>D19/524</f>
-        <v>0.42748091603053434</v>
-      </c>
-      <c r="E27" s="6">
-        <f>E19/H13</f>
-        <v>0.10591061989428159</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="6">
-        <f>B20/H10</f>
-        <v>0.13157364497279872</v>
-      </c>
-      <c r="C28" s="6">
-        <f>C20/H11</f>
-        <v>1</v>
-      </c>
-      <c r="D28" s="6">
-        <f>D20/524</f>
-        <v>0.43893129770992367</v>
-      </c>
-      <c r="E28" s="6">
-        <f>E20/H13</f>
-        <v>0.15127342623738588</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="6">
-        <f>B21/H10</f>
-        <v>0.14386459802538787</v>
-      </c>
-      <c r="C29" s="6">
-        <f>C21/H11</f>
-        <v>0.84343434343434343</v>
-      </c>
-      <c r="D29" s="6">
-        <f>D21/524</f>
-        <v>0.33969465648854963</v>
-      </c>
-      <c r="E29" s="6">
-        <f>E21/H13</f>
-        <v>0.15521383950024026</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="6">
-        <f>B22/H10</f>
-        <v>0.13449526496070924</v>
-      </c>
-      <c r="C30" s="6">
-        <f>C22/H11</f>
-        <v>1</v>
-      </c>
-      <c r="D30" s="6">
-        <f>D22/524</f>
-        <v>0.44656488549618323</v>
-      </c>
-      <c r="E30" s="6">
-        <f>E22/H13</f>
-        <v>0.15444497837578086</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="6">
-        <f>B23/H10</f>
-        <v>0.18748740681039694</v>
-      </c>
-      <c r="C31" s="6">
-        <f>C23/H11</f>
-        <v>1</v>
-      </c>
-      <c r="D31" s="6">
-        <f>D23/524</f>
+      <c r="D32" s="5">
+        <f>D24/524</f>
         <v>0.46564885496183206</v>
       </c>
-      <c r="E31" s="6">
-        <f>E23/H13</f>
+      <c r="E32" s="5">
+        <f>E24/H14</f>
         <v>0.20499759730898606</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="D27" formula="1"/>
+    <ignoredError sqref="D28" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>